--- a/Emotions ideas.xlsx
+++ b/Emotions ideas.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7F53B3AC-FF8F-4708-86DB-A0B3956387E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Color</t>
   </si>
@@ -54,9 +55,6 @@
     <t>Every enemy drops 1 extra soul, if player gets hit he loses all souls for next level</t>
   </si>
   <si>
-    <t>Every enemy kill gives 10% speed and 10% for 4 seconds. Breaking the chain stuns for 2 seconds</t>
-  </si>
-  <si>
     <t>No blink regeneration. You regain blink by killing enemies. Calculate gain by max hp.</t>
   </si>
   <si>
@@ -67,12 +65,18 @@
   </si>
   <si>
     <t>instadeath, twice the damage, …</t>
+  </si>
+  <si>
+    <t>Every enemy kill gives 10% speed and 10% for 4 seconds. Breaking the chain stuns for 2 seconds (OP?)</t>
+  </si>
+  <si>
+    <t>Getting hit removes all blinks, increased soul absorbtion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -160,9 +170,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,17 +457,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
@@ -484,11 +497,13 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -507,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -517,20 +532,20 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
